--- a/Meresek/Szakdolgozat/01_TSP/Grafikonok.xlsx
+++ b/Meresek/Szakdolgozat/01_TSP/Grafikonok.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Iskola dolgok\Projektek\CUDA\Meresek\TSP_v1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Iskola dolgok\Projektek\CUDA\Meresek\Szakdolgozat\01_TSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C825B74B-2368-45E6-9EE2-069F7A55E233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A350AC-24B6-4E41-8CB6-7CDDE11E63F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="19500" windowHeight="11316" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Összehasonlítás" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Méret</t>
   </si>
@@ -44,10 +44,22 @@
     <t>Létező minimum</t>
   </si>
   <si>
-    <t>Átlagosan talált úthossz</t>
-  </si>
-  <si>
-    <t>Hiba (%)</t>
+    <t>Átlagosan talált úthossz v1</t>
+  </si>
+  <si>
+    <t>Hiba (%) v1</t>
+  </si>
+  <si>
+    <t>Átlagosan talált úthossz v2</t>
+  </si>
+  <si>
+    <t>Hiba (%) v2</t>
+  </si>
+  <si>
+    <t>Futásidő v1</t>
+  </si>
+  <si>
+    <t>Futásidő v2</t>
   </si>
 </sst>
 </file>
@@ -366,21 +378,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAFA8B77-86A9-4801-804F-824CA0BED554}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -393,95 +408,157 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B2">
-        <v>19</v>
+        <v>291</v>
       </c>
       <c r="C2">
-        <v>19</v>
+        <v>323.39999999999998</v>
       </c>
       <c r="D2" s="1">
-        <f>(C2-B2)/B2 * 100</f>
-        <v>0</v>
+        <f t="shared" ref="D2:D6" si="0">(C2-B2)/B2 * 100</f>
+        <v>11.134020618556693</v>
+      </c>
+      <c r="E2">
+        <v>13.46</v>
+      </c>
+      <c r="F2">
+        <v>295.39999999999998</v>
+      </c>
+      <c r="G2" s="1">
+        <f>(F2-B2)/B2 * 100</f>
+        <v>1.5120274914089269</v>
+      </c>
+      <c r="H2">
+        <v>3.92</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3">
-        <v>291</v>
+        <v>2085</v>
       </c>
       <c r="C3">
-        <v>336.8</v>
+        <v>2221.6999999999998</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D7" si="0">(C3-B3)/B3 * 100</f>
-        <v>15.738831615120279</v>
+        <f t="shared" si="0"/>
+        <v>6.5563549160671375</v>
+      </c>
+      <c r="E3">
+        <v>15.68</v>
+      </c>
+      <c r="F3">
+        <v>2175.1</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G6" si="1">(F3-B3)/B3 * 100</f>
+        <v>4.3213429256594678</v>
+      </c>
+      <c r="H3">
+        <v>4.55</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B4">
-        <v>2085</v>
+        <v>937</v>
       </c>
       <c r="C4">
-        <v>2250.5</v>
+        <v>1152.3</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" si="0"/>
-        <v>7.9376498800959236</v>
+        <f>(C4-B4)/B4 * 100</f>
+        <v>22.97758804695837</v>
+      </c>
+      <c r="E4">
+        <v>42.72</v>
+      </c>
+      <c r="F4">
+        <v>1111.7</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="1"/>
+        <v>18.644610458911423</v>
+      </c>
+      <c r="H4">
+        <v>11.61</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B5">
-        <v>937</v>
+        <v>699</v>
       </c>
       <c r="C5">
-        <v>1132.0999999999999</v>
+        <v>931.6</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="0"/>
-        <v>20.821771611526138</v>
+        <v>33.276108726752504</v>
+      </c>
+      <c r="E5">
+        <v>113.55</v>
+      </c>
+      <c r="F5">
+        <v>964.9</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="1"/>
+        <v>38.040057224606578</v>
+      </c>
+      <c r="H5">
+        <v>33.31</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B6">
-        <v>699</v>
+        <v>33523</v>
       </c>
       <c r="C6">
-        <v>987.7</v>
+        <v>46360.800000000003</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="0"/>
-        <v>41.301859799713888</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>48</v>
-      </c>
-      <c r="B7">
-        <v>33523</v>
-      </c>
-      <c r="C7">
-        <v>50197.2</v>
-      </c>
-      <c r="D7" s="1">
-        <f t="shared" si="0"/>
-        <v>49.739581779673649</v>
+        <v>38.295498612892651</v>
+      </c>
+      <c r="E6">
+        <v>154.28</v>
+      </c>
+      <c r="F6">
+        <v>49879.9</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="1"/>
+        <v>48.79306744623095</v>
+      </c>
+      <c r="H6">
+        <v>41.93</v>
       </c>
     </row>
   </sheetData>
